--- a/TestData/TMTI0056880_ValidateNewJobTypesAvailability.xlsx
+++ b/TestData/TMTI0056880_ValidateNewJobTypesAvailability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDAA41B-02A0-44FD-A447-47DBB7281107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81BB5A0-5530-44BB-AE12-3CD764B00F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -814,13 +814,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -828,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -846,20 +846,20 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -879,65 +879,65 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>

--- a/TestData/TMTI0056880_ValidateNewJobTypesAvailability.xlsx
+++ b/TestData/TMTI0056880_ValidateNewJobTypesAvailability.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81BB5A0-5530-44BB-AE12-3CD764B00F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948615BF-9BE5-4419-9FD4-871D6370335A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>JobType</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>FA - Portfolio-Auto Struct Prd/Consulting</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Post Merger Integration</t>
+  </si>
+  <si>
+    <t>Valuation Advisory</t>
   </si>
 </sst>
 </file>
@@ -843,10 +852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,6 +871,21 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TMTI0056880_ValidateNewJobTypesAvailability.xlsx
+++ b/TestData/TMTI0056880_ValidateNewJobTypesAvailability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948615BF-9BE5-4419-9FD4-871D6370335A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE2C114-D70B-40E0-AF5D-EFF9DE490580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -823,13 +823,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -837,7 +837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -855,36 +855,36 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -903,65 +903,65 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>

--- a/TestData/TMTI0056880_ValidateNewJobTypesAvailability.xlsx
+++ b/TestData/TMTI0056880_ValidateNewJobTypesAvailability.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE2C114-D70B-40E0-AF5D-EFF9DE490580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76B24F6-2ED5-4964-8A68-6B9670F854AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23136" windowHeight="11556" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
     <sheet name="JobType" sheetId="1" r:id="rId2"/>
-    <sheet name="EngagementJobType" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>JobType</t>
   </si>
@@ -38,33 +37,6 @@
     <t>CaoUser</t>
   </si>
   <si>
-    <t>FA - Portfolio-Advis/Consulting</t>
-  </si>
-  <si>
-    <t>FA - Portfolio-Auto Loans</t>
-  </si>
-  <si>
-    <t>FA - Portfolio-Auto Struct Prd</t>
-  </si>
-  <si>
-    <t>FA - Portfolio-Deriv/Risk Mgmt</t>
-  </si>
-  <si>
-    <t>FA - Portfolio-Diligence/Assets</t>
-  </si>
-  <si>
-    <t>FA - Portfolio-Funds Transfer</t>
-  </si>
-  <si>
-    <t>FA - Portfolio-GP interest</t>
-  </si>
-  <si>
-    <t>FA - Portfolio-Real Estate</t>
-  </si>
-  <si>
-    <t>FA - Portfolio-Valuation</t>
-  </si>
-  <si>
     <t>Drew Koecher</t>
   </si>
   <si>
@@ -81,13 +53,16 @@
   </si>
   <si>
     <t>Valuation Advisory</t>
+  </si>
+  <si>
+    <t>CVAS - IP Valuation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,11 +77,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -452,47 +422,46 @@
   <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyFont="0" applyFill="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyFont="0" applyFill="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyFont="0" applyFill="0"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFont="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyFont="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyFont="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyFont="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFont="0"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyFont="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFont="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyFont="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyFont="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyFont="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyFont="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyFont="0" applyFill="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFont="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyFont="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFont="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFont="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyFont="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -820,16 +789,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -837,12 +806,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -852,121 +821,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/TestData/TMTI0056880_ValidateNewJobTypesAvailability.xlsx
+++ b/TestData/TMTI0056880_ValidateNewJobTypesAvailability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76B24F6-2ED5-4964-8A68-6B9670F854AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A56CC12-A9AC-4A88-B29D-E949A9B67224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23136" windowHeight="11556" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="28980" windowHeight="14625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>JobType</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>CVAS - IP Valuation</t>
+  </si>
+  <si>
+    <t>TAS - ESG Due Diligence &amp; Analytics</t>
   </si>
 </sst>
 </file>
@@ -821,10 +824,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,6 +865,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
